--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.494184004834169</v>
+        <v>5.928568666666667</v>
       </c>
       <c r="H2">
-        <v>8.494184004834169</v>
+        <v>17.785706</v>
       </c>
       <c r="I2">
-        <v>0.8959495486271259</v>
+        <v>0.3809768389628236</v>
       </c>
       <c r="J2">
-        <v>0.8959495486271259</v>
+        <v>0.3809768389628236</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.345035575171224</v>
+        <v>0.3701153333333333</v>
       </c>
       <c r="N2">
-        <v>0.345035575171224</v>
+        <v>1.110346</v>
       </c>
       <c r="O2">
-        <v>0.4020259695555035</v>
+        <v>0.3716314658367922</v>
       </c>
       <c r="P2">
-        <v>0.4020259695555035</v>
+        <v>0.3716314658367921</v>
       </c>
       <c r="Q2">
-        <v>2.930795663718169</v>
+        <v>2.194254168252889</v>
       </c>
       <c r="R2">
-        <v>2.930795663718169</v>
+        <v>19.748287514276</v>
       </c>
       <c r="S2">
-        <v>0.3601949859596361</v>
+        <v>0.1415829811136217</v>
       </c>
       <c r="T2">
-        <v>0.3601949859596361</v>
+        <v>0.1415829811136216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.494184004834169</v>
+        <v>5.928568666666667</v>
       </c>
       <c r="H3">
-        <v>8.494184004834169</v>
+        <v>17.785706</v>
       </c>
       <c r="I3">
-        <v>0.8959495486271259</v>
+        <v>0.3809768389628236</v>
       </c>
       <c r="J3">
-        <v>0.8959495486271259</v>
+        <v>0.3809768389628236</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.513206432310804</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N3">
-        <v>0.513206432310804</v>
+        <v>1.59386</v>
       </c>
       <c r="O3">
-        <v>0.5979740304444965</v>
+        <v>0.5334630179589331</v>
       </c>
       <c r="P3">
-        <v>0.5979740304444965</v>
+        <v>0.5334630179589331</v>
       </c>
       <c r="Q3">
-        <v>4.359269868512441</v>
+        <v>3.149769485017778</v>
       </c>
       <c r="R3">
-        <v>4.359269868512441</v>
+        <v>28.34792536516</v>
       </c>
       <c r="S3">
-        <v>0.5357545626674899</v>
+        <v>0.2032370542855624</v>
       </c>
       <c r="T3">
-        <v>0.5357545626674899</v>
+        <v>0.2032370542855624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.986465902127564</v>
+        <v>5.928568666666667</v>
       </c>
       <c r="H4">
-        <v>0.986465902127564</v>
+        <v>17.785706</v>
       </c>
       <c r="I4">
-        <v>0.104050451372874</v>
+        <v>0.3809768389628236</v>
       </c>
       <c r="J4">
-        <v>0.104050451372874</v>
+        <v>0.3809768389628236</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.345035575171224</v>
+        <v>0.09451833333333333</v>
       </c>
       <c r="N4">
-        <v>0.345035575171224</v>
+        <v>0.283555</v>
       </c>
       <c r="O4">
-        <v>0.4020259695555035</v>
+        <v>0.09490551620427472</v>
       </c>
       <c r="P4">
-        <v>0.4020259695555035</v>
+        <v>0.0949055162042747</v>
       </c>
       <c r="Q4">
-        <v>0.3403658299273845</v>
+        <v>0.5603584294255556</v>
       </c>
       <c r="R4">
-        <v>0.3403658299273845</v>
+        <v>5.04322586483</v>
       </c>
       <c r="S4">
-        <v>0.04183098359586743</v>
+        <v>0.03615680356363962</v>
       </c>
       <c r="T4">
-        <v>0.04183098359586743</v>
+        <v>0.03615680356363962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.986465902127564</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H5">
-        <v>0.986465902127564</v>
+        <v>25.750563</v>
       </c>
       <c r="I5">
-        <v>0.104050451372874</v>
+        <v>0.5515872180307627</v>
       </c>
       <c r="J5">
-        <v>0.104050451372874</v>
+        <v>0.5515872180307626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.513206432310804</v>
+        <v>0.3701153333333333</v>
       </c>
       <c r="N5">
-        <v>0.513206432310804</v>
+        <v>1.110346</v>
       </c>
       <c r="O5">
-        <v>0.5979740304444965</v>
+        <v>0.3716314658367922</v>
       </c>
       <c r="P5">
-        <v>0.5979740304444965</v>
+        <v>0.3716314658367921</v>
       </c>
       <c r="Q5">
-        <v>0.5062606462271458</v>
+        <v>3.176892736088666</v>
       </c>
       <c r="R5">
-        <v>0.5062606462271458</v>
+        <v>28.592034624798</v>
       </c>
       <c r="S5">
-        <v>0.06221946777700654</v>
+        <v>0.2049871663736106</v>
       </c>
       <c r="T5">
-        <v>0.06221946777700654</v>
+        <v>0.2049871663736106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.583520999999999</v>
+      </c>
+      <c r="H6">
+        <v>25.750563</v>
+      </c>
+      <c r="I6">
+        <v>0.5515872180307627</v>
+      </c>
+      <c r="J6">
+        <v>0.5515872180307626</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5312866666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.59386</v>
+      </c>
+      <c r="O6">
+        <v>0.5334630179589331</v>
+      </c>
+      <c r="P6">
+        <v>0.5334630179589331</v>
+      </c>
+      <c r="Q6">
+        <v>4.560310260353332</v>
+      </c>
+      <c r="R6">
+        <v>41.04279234318</v>
+      </c>
+      <c r="S6">
+        <v>0.2942513819982627</v>
+      </c>
+      <c r="T6">
+        <v>0.2942513819982627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.583520999999999</v>
+      </c>
+      <c r="H7">
+        <v>25.750563</v>
+      </c>
+      <c r="I7">
+        <v>0.5515872180307627</v>
+      </c>
+      <c r="J7">
+        <v>0.5515872180307626</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.09451833333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.283555</v>
+      </c>
+      <c r="O7">
+        <v>0.09490551620427472</v>
+      </c>
+      <c r="P7">
+        <v>0.0949055162042747</v>
+      </c>
+      <c r="Q7">
+        <v>0.8113000990516666</v>
+      </c>
+      <c r="R7">
+        <v>7.301700891465</v>
+      </c>
+      <c r="S7">
+        <v>0.05234866965888936</v>
+      </c>
+      <c r="T7">
+        <v>0.05234866965888935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.049404</v>
+      </c>
+      <c r="H8">
+        <v>3.148212</v>
+      </c>
+      <c r="I8">
+        <v>0.06743594300641363</v>
+      </c>
+      <c r="J8">
+        <v>0.06743594300641362</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3701153333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.110346</v>
+      </c>
+      <c r="O8">
+        <v>0.3716314658367922</v>
+      </c>
+      <c r="P8">
+        <v>0.3716314658367921</v>
+      </c>
+      <c r="Q8">
+        <v>0.3884005112613333</v>
+      </c>
+      <c r="R8">
+        <v>3.495604601351999</v>
+      </c>
+      <c r="S8">
+        <v>0.02506131834955987</v>
+      </c>
+      <c r="T8">
+        <v>0.02506131834955986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.049404</v>
+      </c>
+      <c r="H9">
+        <v>3.148212</v>
+      </c>
+      <c r="I9">
+        <v>0.06743594300641363</v>
+      </c>
+      <c r="J9">
+        <v>0.06743594300641362</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5312866666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.59386</v>
+      </c>
+      <c r="O9">
+        <v>0.5334630179589331</v>
+      </c>
+      <c r="P9">
+        <v>0.5334630179589331</v>
+      </c>
+      <c r="Q9">
+        <v>0.5575343531466666</v>
+      </c>
+      <c r="R9">
+        <v>5.017809178319999</v>
+      </c>
+      <c r="S9">
+        <v>0.03597458167510802</v>
+      </c>
+      <c r="T9">
+        <v>0.03597458167510802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.049404</v>
+      </c>
+      <c r="H10">
+        <v>3.148212</v>
+      </c>
+      <c r="I10">
+        <v>0.06743594300641363</v>
+      </c>
+      <c r="J10">
+        <v>0.06743594300641362</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.09451833333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.283555</v>
+      </c>
+      <c r="O10">
+        <v>0.09490551620427472</v>
+      </c>
+      <c r="P10">
+        <v>0.0949055162042747</v>
+      </c>
+      <c r="Q10">
+        <v>0.09918791707333333</v>
+      </c>
+      <c r="R10">
+        <v>0.89269125366</v>
+      </c>
+      <c r="S10">
+        <v>0.006400042981745735</v>
+      </c>
+      <c r="T10">
+        <v>0.006400042981745733</v>
       </c>
     </row>
   </sheetData>
